--- a/biology/Botanique/Myrsine_guianensis/Myrsine_guianensis.xlsx
+++ b/biology/Botanique/Myrsine_guianensis/Myrsine_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Myrsine guianensis est une espèce de plantes à fleurs appartenant à la famille des Primulaceae. C'est un arbre originaire d'Amérique centrale et d'Amérique du Sud.
-Au Suriname, on le connaît sous les noms de Oakara (Arawak), Konaparan (Karib) ou Mannie botieie (Saramaka)[2]. En Colombie, on l'appelle Cucharo, Espadero ou Chagualo.
+Au Suriname, on le connaît sous les noms de Oakara (Arawak), Konaparan (Karib) ou Mannie botieie (Saramaka). En Colombie, on l'appelle Cucharo, Espadero ou Chagualo.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Myrsine guianensis est un arbuste ou un petit arbre à branches assez épaisses, pouvant atteindre 6(–15) m de haut[3]. Ses feuilles obovales-oblongues à elliptiques, longues de 6-10 cm pour 3-4 cm de large, sont coriaces, brillantes sur le dessus, obtuses ou arrondies à l'apex, s'effilant sur le pétiole sur environ 7 mm de long, avec des marges entières, souvent révolutes. Les inflorescences sont des ombelles sessiles, globuleuses, très courtes (environ 4 mm de long), et comportant 3-10 fleurs. Les pédicelles épais mesurent environ 1 mm de long. Les fleurs glabres et longues de 2 mm, comportent de petits sépales oblongs, plus ou moins aigus, un peu unis à la base, et des pétales elliptiques, un peu unis. Les anthères, aiguës à l'apex, sont légèrement plus petites que les pétales. Le stigmate est nettement lobé chez les fleurs femelles, et conique chez les fleurs mâles[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Myrsine guianensis est un arbuste ou un petit arbre à branches assez épaisses, pouvant atteindre 6(–15) m de haut. Ses feuilles obovales-oblongues à elliptiques, longues de 6-10 cm pour 3-4 cm de large, sont coriaces, brillantes sur le dessus, obtuses ou arrondies à l'apex, s'effilant sur le pétiole sur environ 7 mm de long, avec des marges entières, souvent révolutes. Les inflorescences sont des ombelles sessiles, globuleuses, très courtes (environ 4 mm de long), et comportant 3-10 fleurs. Les pédicelles épais mesurent environ 1 mm de long. Les fleurs glabres et longues de 2 mm, comportent de petits sépales oblongs, plus ou moins aigus, un peu unis à la base, et des pétales elliptiques, un peu unis. Les anthères, aiguës à l'apex, sont légèrement plus petites que les pétales. Le stigmate est nettement lobé chez les fleurs femelles, et conique chez les fleurs mâles.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Myrsine guianensis sur le plateau des Guyanes (Venezuela, Guyane, Suriname, Guyane) et au Brésil jusque dans le cerrado[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Myrsine guianensis sur le plateau des Guyanes (Venezuela, Guyane, Suriname, Guyane) et au Brésil jusque dans le cerrado.
 </t>
         </is>
       </c>
@@ -574,14 +590,16 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Myrsine guianensis pousse depuis le niveau de la mer jusqu'à 1400(-2800) m d'altitude, dans les forêts tropicales sempervirentes des basses terres aux forêts montagnardes, les forêts riveraines, et dans les savanes[3].
-Myrsine guianensis présente des adaptations de résistance au passage du feu[4] : elle produit des jeunes pousses après le passage du feu[5]
-, mais le feu réduit la production de graines et nuit à l'installation des plantules[6]
-Myrsine guianensis produit dans ses feuilles des tanins aux effets allélopathiques[7].
-Le développement de Myrsine guianensis est accéléré en pépinière par des doses appropriées de phosphore et par l'inoculation de champignons mycorhiziens[8].
-Myrsine guianensis est la plante hôte de diverses chenilles[9] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Myrsine guianensis pousse depuis le niveau de la mer jusqu'à 1400(-2800) m d'altitude, dans les forêts tropicales sempervirentes des basses terres aux forêts montagnardes, les forêts riveraines, et dans les savanes.
+Myrsine guianensis présente des adaptations de résistance au passage du feu : elle produit des jeunes pousses après le passage du feu
+, mais le feu réduit la production de graines et nuit à l'installation des plantules
+Myrsine guianensis produit dans ses feuilles des tanins aux effets allélopathiques.
+Le développement de Myrsine guianensis est accéléré en pépinière par des doses appropriées de phosphore et par l'inoculation de champignons mycorhiziens.
+Myrsine guianensis est la plante hôte de diverses chenilles : 
 Gelechiidae
 Dichomeris spp.
 Geometridae
@@ -629,11 +647,13 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'extrait de Myrsine guianensis présente des activités inhibitrices sur les venins des serpents Bothrops alternatus et Bothrops moojeni (inhibition des phospholipase, des activités coagulantes et hémorrhagiques)[10].
-L'huile essentielle de Myrsine guianensis contient des molécules bioactives présentant des activités antibactériennes sur des souches bactériennes responsables d'intoxications alimentaires, avec notamment une forte inhibition des souche de Staphylococcus, agent responsable de la mammite bovine et de maladies transmises par le lait[11].
-L'administration orale à des rates de rapanone (molécule produite par Myrsine guianensis), provoque une altération utérine et réduit leur fertilité[12].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'extrait de Myrsine guianensis présente des activités inhibitrices sur les venins des serpents Bothrops alternatus et Bothrops moojeni (inhibition des phospholipase, des activités coagulantes et hémorrhagiques).
+L'huile essentielle de Myrsine guianensis contient des molécules bioactives présentant des activités antibactériennes sur des souches bactériennes responsables d'intoxications alimentaires, avec notamment une forte inhibition des souche de Staphylococcus, agent responsable de la mammite bovine et de maladies transmises par le lait.
+L'administration orale à des rates de rapanone (molécule produite par Myrsine guianensis), provoque une altération utérine et réduit leur fertilité.
 </t>
         </is>
       </c>
@@ -662,9 +682,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[13] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « RAPANEA (Guianenſis). (Tabula 46.) 
 Frutex, trunco quinque-pedali, ad ſummitatem ramoſo ; ramis &amp; ramulis undiquè ſparſis. Folia alterna, petiolata, craſſa, glabra, ovata, integerrima. Flores faſciculati ſubſeſſiles, ſparſi ſuprà corticem ramorum &amp; ramuſculorum. Corolla alba. Germen immarurum transversè ſectum, quinque aut ſex semina oſtendit; fructu maturo, unicum femen reperitur. Bacca eſt violacea. 
 Florebat &amp; frustum ferebat Decembri. 
